--- a/Spectrogram/results_summary.xlsx
+++ b/Spectrogram/results_summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAC58E7-2997-4B9F-8065-B097091DD4A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B999FB9B-58FF-4A79-BF19-83E03E625667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
   <si>
     <t>Regression</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>NEW SPECTROGRAMS</t>
+  </si>
+  <si>
+    <t>NEWER SPECTROGRAMS</t>
   </si>
 </sst>
 </file>
@@ -503,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I7"/>
+  <dimension ref="A2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -523,8 +526,13 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
@@ -549,8 +557,17 @@
       <c r="I3" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="J3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="15">
         <v>0</v>
       </c>
@@ -569,8 +586,11 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="9">
         <v>1</v>
@@ -587,8 +607,11 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>1</v>
       </c>
@@ -613,8 +636,13 @@
       <c r="I6" s="4">
         <v>2.44</v>
       </c>
+      <c r="J6" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="9">
         <v>1</v>
@@ -637,15 +665,21 @@
       <c r="I7" s="6">
         <v>2.5</v>
       </c>
+      <c r="J7" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:I7">
+  <conditionalFormatting sqref="D4:L7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Spectrogram/results_summary.xlsx
+++ b/Spectrogram/results_summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B999FB9B-58FF-4A79-BF19-83E03E625667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9709D4F-3127-4FF4-93E1-153BE7BB3CAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Regression</t>
   </si>
@@ -586,7 +586,9 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>2.15</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="2"/>
     </row>

--- a/Spectrogram/results_summary.xlsx
+++ b/Spectrogram/results_summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9709D4F-3127-4FF4-93E1-153BE7BB3CAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DFEC49-5D49-4663-A4CF-075DADC4239A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,8 +641,12 @@
       <c r="J6" s="3">
         <v>2.16</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2.5099999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
